--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1887.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1887.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.515013306837381</v>
+        <v>1.429878711700439</v>
       </c>
       <c r="B1">
-        <v>3.791081850305555</v>
+        <v>2.008875370025635</v>
       </c>
       <c r="C1">
-        <v>4.034150315931928</v>
+        <v>3.066088914871216</v>
       </c>
       <c r="D1">
-        <v>1.38771216960355</v>
+        <v>3.717811346054077</v>
       </c>
       <c r="E1">
-        <v>0.676006345874434</v>
+        <v>0.9659655094146729</v>
       </c>
     </row>
   </sheetData>
